--- a/biology/Histoire de la zoologie et de la botanique/Felix_Kopstein/Felix_Kopstein.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Felix_Kopstein/Felix_Kopstein.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Felix Kopstein est un médecin et un naturaliste autrichien, né le 4 juin 1893 à Vienne et mort le 14 avril 1939 à La Haye.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Intéressé très tôt pour l’herpétologie, il fait un voyage en Albanie pour y récolter des spécimens à seulement 21 ans. Il offre ceux-ci au Muséum de Vienne où il rencontre Otto von Wettstein Ritter von Westersheim (1892-1967). Il étudie la médecine et la biologie de 1913 à 1920. En janvier 1921, il part en Asie comme médecin pour le gouvernement des Pays-Bas pour une période de trois ans. Il fait de nombreux voyages dans les Moluques et la Nouvelle-Guinée. Kopstein évoquera ses voyages dans Een Zoölogische Reis Door de Tropen de 1930. Dès son arrivée à Amboina, il se met en relation avec le muséum de Leyde et propose de leur acheminer des spécimens d’histoire naturelle. Il envoie alors régulièrement des spécimens à Leyde et part y travailler dès qu’il a des congés. Mais son espoir d’obtenir un poste dans cette institution n’aboutit pas. Il s’intéresse peu, dans ses publications, aux questions de classification et se consacre à l’écologie et la biologie des reptiles. Il est le premier à décrire la fertilisation retardée chez les serpents.
 En 2007, Dendrelaphis kopsteini, une espèce de colubridés, est nommée en son honneur.
@@ -543,7 +557,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Kraig Adler (1989). Contributions to the History of Herpetology, Society for the study of amphibians and reptiles : 202 p.  (ISBN 0-916984-19-2)
 Kopstein est l’abréviation habituelle de Felix Kopstein en zoologie.
